--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -24,16 +24,16 @@
     <t>用例名</t>
   </si>
   <si>
-    <t>key(需要key可以在这里增加key)</t>
-  </si>
-  <si>
-    <t>connent</t>
+    <t>请求方式</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>请求方式</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>paramas</t>
   </si>
   <si>
     <t>预期结果</t>
@@ -42,13 +42,13 @@
     <t>大货栈api接口</t>
   </si>
   <si>
-    <t>{"hnAccount":"15020579521","hnPassword":"123456"}</t>
+    <t>POST</t>
   </si>
   <si>
     <t>/Account/Login</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>{"hnAccount":"15020579521","hnPassword":"123456"}</t>
   </si>
   <si>
     <t>IsPass= False</t>
@@ -74,7 +74,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -92,6 +92,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -108,9 +152,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,40 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,27 +214,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,31 +229,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,31 +245,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,23 +442,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +454,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,35 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +506,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,166 +544,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1056,16 +1059,16 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
-    <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1078,7 +1081,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1087,7 +1090,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1098,25 +1101,25 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="5"/>
+    <row r="6" spans="4:4">
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="/Account/Login" tooltip="http://192.168.1.9:86/sys/login"/>
+    <hyperlink ref="D2" r:id="rId1" display="/Account/Login" tooltip="http://192.168.1.9:86/sys/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
